--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr5_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -188,59 +239,59 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
+    <col min="2" max="2" width="13.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="13.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="15.64453125" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="15.64453125" customWidth="true"/>
-    <col min="9" max="9" width="15.77734375" customWidth="true"/>
-    <col min="10" max="10" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.33061697859557893</v>
+        <v>0.087252909201120832</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.32588195419889887</v>
+        <v>-0.14217394434066633</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.0060535635340919847</v>
+        <v>-0.16901480091474441</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00023257627610653791</v>
+        <v>0.0016554643174903126</v>
       </c>
       <c r="F3" s="0">
-        <v>0.002634962999889042</v>
+        <v>-0.062339297220087408</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.0005246669572035454</v>
+        <v>0.0015977432007594468</v>
       </c>
       <c r="H3" s="0">
-        <v>1.0798853925049787e-05</v>
+        <v>0.00021938211717244607</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0010535848189173489</v>
+        <v>-0.001198352161439441</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>1.8452783612177281e-05</v>
+        <v>-0.00034699288093809066</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.33990178264332926</v>
+        <v>0.29512944842103739</v>
       </c>
       <c r="C4" s="0">
-        <v>0.013919139044833797</v>
+        <v>0.24516655920886327</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-7.1213721129009574e-06</v>
+        <v>-0.00018247113652134731</v>
       </c>
       <c r="F4" s="0">
-        <v>0.00020261960863371918</v>
+        <v>6.6261750941271888e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>8.7625064144412111e-06</v>
+        <v>-0.0063196228876934183</v>
       </c>
       <c r="I4" s="0">
-        <v>-3.761602882046831e-05</v>
+        <v>0.12118772229246119</v>
       </c>
       <c r="J4" s="0">
-        <v>-7.2722586779675575e-05</v>
+        <v>0.081186892050433557</v>
       </c>
       <c r="K4" s="0">
-        <v>6.767272261454238e-06</v>
+        <v>-0.0038019485167808398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29578787597649914</v>
+        <v>0.24975455041809896</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.021451718058049483</v>
+        <v>0.050025995576514541</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.0008353823570783715</v>
+        <v>0.0043710665964494296</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.0074139657030901597</v>
+        <v>-0.12953482521217011</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0037099317125994062</v>
+        <v>-0.0040889117078991618</v>
       </c>
       <c r="H5" s="0">
-        <v>0.00014535437915119979</v>
+        <v>-0.0016603534949896719</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.010721729630005771</v>
+        <v>0.0073250206456258078</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.0001265335851581284</v>
+        <v>0.028187109593530768</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.21727732755586945</v>
+        <v>0.15495481843652661</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.09149044784942495</v>
+        <v>-0.023565186205378053</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-4.7663395031682024e-06</v>
+        <v>-0.0003261970795516467</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00098192945868975706</v>
+        <v>-0.0036410521818046847</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0010831400611903555</v>
+        <v>-0.014649039867672452</v>
       </c>
       <c r="I6" s="0">
-        <v>0.01091950921846975</v>
+        <v>-0.053182046719068107</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>8.7029948581118788e-08</v>
+        <v>0.00056379007190260344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.067284678813792631</v>
+        <v>0.41700179512197083</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.16134308691293894</v>
+        <v>0.22961129784337592</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00033571637715474559</v>
+        <v>-0.0043802252640029633</v>
       </c>
       <c r="F7" s="0">
-        <v>0.011174437275596978</v>
+        <v>0.051342371476994643</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00019527299412929811</v>
+        <v>-0.00072232841879023117</v>
       </c>
       <c r="H7" s="0">
-        <v>1.0514550126259848e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.00033125789359968974</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00036521782282325499</v>
+        <v>-0.013804138952133144</v>
       </c>
     </row>
     <row r="8">
